--- a/Financials/Quarterly/AGN_QTR_FIN.xlsx
+++ b/Financials/Quarterly/AGN_QTR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4971698-248A-413F-B5EF-478AB0195F43}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AGN" sheetId="6" r:id="rId1"/>
@@ -17,7 +18,7 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -300,9 +301,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -344,7 +345,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -441,6 +442,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -476,6 +494,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -651,148 +686,172 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43373</v>
+      </c>
+      <c r="F7" s="2">
         <v>43281</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43190</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43008</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>42916</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>42825</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>42735</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4079700</v>
+      </c>
+      <c r="E8" s="3">
+        <v>3911400</v>
+      </c>
+      <c r="F8" s="3">
         <v>4124200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>3672100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>4326100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>4034300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>4007400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>3572900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>3864300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>3622200</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>590000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>596800</v>
+      </c>
+      <c r="F9" s="3">
         <v>481800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>522800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>580900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>586500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>550200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>450400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>479700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>462200</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>3489700</v>
+      </c>
+      <c r="E10" s="3">
+        <v>3314600</v>
+      </c>
+      <c r="F10" s="3">
         <v>3642400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>3149300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>3745200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>3447800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>3457200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>3122500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>3384600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>3160000</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -804,37 +863,45 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>678100</v>
+      </c>
+      <c r="E12" s="3">
+        <v>424200</v>
+      </c>
+      <c r="F12" s="3">
         <v>689200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>474700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>408200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>442600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>489400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>759900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>913300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>622800</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -862,66 +929,84 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>2832900</v>
+      </c>
+      <c r="E14" s="3">
+        <v>-121300</v>
+      </c>
+      <c r="F14" s="3">
         <v>213900</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>522000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>-3174300</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>1497500</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>864800</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>2318000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>427000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>42000</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>1569100</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1588500</v>
+      </c>
+      <c r="F15" s="3">
         <v>1697100</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>1697600</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>1922200</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>1781000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>1757900</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>1736000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>1638500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>1609100</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -930,66 +1015,80 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>9449000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>3532600</v>
+      </c>
+      <c r="F17" s="3">
         <v>4529100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>4326100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1035300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>9352100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>5071300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>6456900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>4764300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>3888600</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-5369300</v>
+      </c>
+      <c r="E18" s="3">
+        <v>378800</v>
+      </c>
+      <c r="F18" s="3">
         <v>-404900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-654000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>3290800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-5317800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-1063900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-2884000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-900000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-266400</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1001,153 +1100,185 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="E20" s="3">
+        <v>18700</v>
+      </c>
+      <c r="F20" s="3">
         <v>159600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-61500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-3437300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-3700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>44600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>80500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>81400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>51700</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>-3766700</v>
+      </c>
+      <c r="E21" s="3">
+        <v>2030500</v>
+      </c>
+      <c r="F21" s="3">
         <v>1500900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>1038200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>1824000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-3498500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>778200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-1025900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>858100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>1435100</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>210200</v>
+      </c>
+      <c r="E22" s="3">
+        <v>220400</v>
+      </c>
+      <c r="F22" s="3">
         <v>230000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>250600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>263300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>265200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>277400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>289700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>292700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>324300</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-5592600</v>
+      </c>
+      <c r="E23" s="3">
+        <v>177100</v>
+      </c>
+      <c r="F23" s="3">
         <v>-475300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-966100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-409800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-5586700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-1296700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-3093200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-1111300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-539000</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>-1282400</v>
+      </c>
+      <c r="E24" s="3">
+        <v>213400</v>
+      </c>
+      <c r="F24" s="3">
         <v>-5200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>-682200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>-1118300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-1638800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>-581200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>-532100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-1071200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-158900</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1175,66 +1306,84 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-4310200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-36300</v>
+      </c>
+      <c r="F26" s="3">
         <v>-470100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-283900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>708500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-3947900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-715500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-2561100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-40100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-380100</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-4314200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-37900</v>
+      </c>
+      <c r="F27" s="3">
         <v>-472500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-332500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>637000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-4019200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-787100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-2631700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-111500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-451500</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1262,37 +1411,49 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
+        <v>14300</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
       </c>
       <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>2414700</v>
       </c>
-      <c r="G29" s="3">
+      <c r="I29" s="3">
         <v>-6100</v>
       </c>
-      <c r="H29" s="3">
+      <c r="J29" s="3">
         <v>-8400</v>
       </c>
-      <c r="I29" s="3">
+      <c r="K29" s="3">
         <v>-3100</v>
       </c>
-      <c r="J29" s="3">
+      <c r="L29" s="3">
         <v>41300</v>
       </c>
-      <c r="K29" s="3">
+      <c r="M29" s="3">
         <v>15601900</v>
       </c>
     </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1320,8 +1481,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1349,66 +1516,84 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>13100</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-18700</v>
+      </c>
+      <c r="F32" s="3">
         <v>-159600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>61500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>3437300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>3700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-44600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-80500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-81400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-51700</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>-4299900</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-37900</v>
+      </c>
+      <c r="F33" s="3">
         <v>-472500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-332500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>3051700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-4025300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-795500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-2634800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-70200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>15150400</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1436,71 +1621,89 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>-4299900</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-37900</v>
+      </c>
+      <c r="F35" s="3">
         <v>-472500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-332500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>3051700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-4025300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-795500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-2634800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-70200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>15150400</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43373</v>
+      </c>
+      <c r="F38" s="2">
         <v>43281</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43190</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43008</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>42916</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>42825</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>42735</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1512,8 +1715,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1525,269 +1730,325 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>880400</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1187900</v>
+      </c>
+      <c r="F41" s="3">
         <v>1674700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>994800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>1817200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>1612700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>886900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>1092900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1724000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>7554700</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
+        <v>1026900</v>
+      </c>
+      <c r="E42" s="3">
+        <v>22000</v>
+      </c>
+      <c r="F42" s="3">
         <v>21500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>1037400</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>4632100</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>3829100</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>4939000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>7858200</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>11501500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>19837600</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>2868100</v>
+      </c>
+      <c r="E43" s="3">
+        <v>2826900</v>
+      </c>
+      <c r="F43" s="3">
         <v>2760800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>2639200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>2899000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>2808600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>2795900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>2542000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>2531000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>2398500</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>846900</v>
+      </c>
+      <c r="E44" s="3">
+        <v>894600</v>
+      </c>
+      <c r="F44" s="3">
         <v>922500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>948400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>904500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>899800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>935900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>904700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>718000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>705500</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>853100</v>
+      </c>
+      <c r="E45" s="3">
+        <v>808800</v>
+      </c>
+      <c r="F45" s="3">
         <v>724200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>773500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>1123900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>962600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>875500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>1302900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>1383400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>1227600</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>6475400</v>
+      </c>
+      <c r="E46" s="3">
+        <v>5740200</v>
+      </c>
+      <c r="F46" s="3">
         <v>6103700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>6393300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>11376700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>10112800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>10433200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>13700700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>17857900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>31723900</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
+        <v>1886900</v>
+      </c>
+      <c r="E47" s="3">
+        <v>302800</v>
+      </c>
+      <c r="F47" s="3">
         <v>297900</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>267100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>216800</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>221100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>242300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>245400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>242700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>254200</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>1787000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1756600</v>
+      </c>
+      <c r="F48" s="3">
         <v>1761400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>1769500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>1785400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>1802200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>1750100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>1659300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>1611300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>1566300</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>89608700</v>
+      </c>
+      <c r="E49" s="3">
+        <v>97583800</v>
+      </c>
+      <c r="F49" s="3">
         <v>99615500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>102626000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>104511200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>106469800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>111961900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>110911300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>108974700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>109648500</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -1815,8 +2076,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -1844,37 +2111,49 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>2029600</v>
+      </c>
+      <c r="E52" s="3">
+        <v>1159100</v>
+      </c>
+      <c r="F52" s="3">
         <v>1080300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>965400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>451800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>386900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>347300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>320200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>299700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>414800</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -1902,37 +2181,49 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>101787600</v>
+      </c>
+      <c r="E54" s="3">
+        <v>106542500</v>
+      </c>
+      <c r="F54" s="3">
         <v>108858800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>112021300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>118341900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>118992800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>124734800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>126836900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>128986300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>143607700</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -1944,8 +2235,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -1957,182 +2250,220 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>354100</v>
+      </c>
+      <c r="E57" s="3">
+        <v>291000</v>
+      </c>
+      <c r="F57" s="3">
         <v>511400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>998100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>1029900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>539000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>551500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>563500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>489800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>296500</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>868300</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1351600</v>
+      </c>
+      <c r="F58" s="3">
         <v>1348500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>626200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>4231800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>3797000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>3795000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>5526400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>2797900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>1591800</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>4505500</v>
+      </c>
+      <c r="E59" s="3">
+        <v>4589300</v>
+      </c>
+      <c r="F59" s="3">
         <v>4265400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>4191700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>4586400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>4223800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>4291800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>4301700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>4587000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>6137200</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>5727900</v>
+      </c>
+      <c r="E60" s="3">
+        <v>6231900</v>
+      </c>
+      <c r="F60" s="3">
         <v>6125300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>5816000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>9848100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>8559800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>8638300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>10391600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>7874700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>8025500</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>22929400</v>
+      </c>
+      <c r="E61" s="3">
+        <v>22231800</v>
+      </c>
+      <c r="F61" s="3">
         <v>24002000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>25936400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>25843500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>26539100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>26443300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>26223000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>29970800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>31178200</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>7999300</v>
+      </c>
+      <c r="E62" s="3">
+        <v>7557900</v>
+      </c>
+      <c r="F62" s="3">
         <v>7467500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>7922900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>8813200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>12720400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>14420400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>15023500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>14940300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>14673600</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -2160,8 +2491,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2189,8 +2526,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -2218,37 +2561,49 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>36673500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>36034700</v>
+      </c>
+      <c r="F66" s="3">
         <v>37615300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>39693400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>44520800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>47833400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>49514400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>51648500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>52793600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>53881800</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -2260,8 +2615,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -2289,8 +2646,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -2318,8 +2681,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -2330,10 +2699,10 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>4929700</v>
+        <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>4929700</v>
+        <v>0</v>
       </c>
       <c r="H70" s="3">
         <v>4929700</v>
@@ -2347,8 +2716,14 @@
       <c r="K70" s="3">
         <v>4929700</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>4929700</v>
+      </c>
+      <c r="M70" s="3">
+        <v>4929700</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -2376,37 +2751,49 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>7258900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>11800600</v>
+      </c>
+      <c r="F72" s="3">
         <v>12082900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>12799500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>12957200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>10137200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>14397900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>15429900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>18342500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>18412700</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -2434,8 +2821,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -2463,8 +2856,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -2492,37 +2891,49 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>65114100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>70507800</v>
+      </c>
+      <c r="F76" s="3">
         <v>71243500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>72327900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>68891400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>66229700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>70290700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>70258700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>71263000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>84796200</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -2550,71 +2961,89 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43373</v>
+      </c>
+      <c r="F80" s="2">
         <v>43281</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43190</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43008</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>42916</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>42825</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>42735</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>-4299900</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-37900</v>
+      </c>
+      <c r="F81" s="3">
         <v>-472500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-332500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>3051700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-4025300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-795500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-2634800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-70200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>15150400</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -2626,37 +3055,45 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
+        <v>1615700</v>
+      </c>
+      <c r="E83" s="3">
+        <v>1633000</v>
+      </c>
+      <c r="F83" s="3">
         <v>1746200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>1753700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>1970500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>1823000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>1797500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>1777600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>1676700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>1649800</v>
       </c>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -2684,8 +3121,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -2713,8 +3156,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -2742,8 +3191,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -2771,8 +3226,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -2800,37 +3261,49 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>1498600</v>
+      </c>
+      <c r="E89" s="3">
+        <v>1443000</v>
+      </c>
+      <c r="F89" s="3">
         <v>1240200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>1458300</v>
       </c>
-      <c r="F89" s="3">
-        <v>2048400</v>
-      </c>
-      <c r="G89" s="3">
-        <v>1301900</v>
-      </c>
       <c r="H89" s="3">
+        <v>2083500</v>
+      </c>
+      <c r="I89" s="3">
+        <v>1472400</v>
+      </c>
+      <c r="J89" s="3">
         <v>1799800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>723300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-89500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-1097700</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -2842,37 +3315,45 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-88400</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-58600</v>
+      </c>
+      <c r="F91" s="3">
         <v>-60100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-46400</v>
       </c>
-      <c r="F91" s="3">
-        <v>-125900</v>
-      </c>
-      <c r="G91" s="3">
-        <v>608700</v>
-      </c>
       <c r="H91" s="3">
-        <v>-1067500</v>
+        <v>-115900</v>
       </c>
       <c r="I91" s="3">
+        <v>-96800</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-104000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-379500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-165800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-135400</v>
       </c>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -2900,8 +3381,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -2929,37 +3416,49 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-1039900</v>
+      </c>
+      <c r="E94" s="3">
+        <v>504000</v>
+      </c>
+      <c r="F94" s="3">
         <v>702100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>2932300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-795700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-482300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>385800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>14200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>6726000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>17750100</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -2971,37 +3470,45 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
+        <v>-241700</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-244400</v>
+      </c>
+      <c r="F96" s="3">
         <v>-244200</v>
       </c>
-      <c r="E96" s="3">
+      <c r="G96" s="3">
         <v>-319500</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-301200</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-305100</v>
       </c>
-      <c r="H96" s="3">
+      <c r="J96" s="3">
         <v>-306100</v>
       </c>
-      <c r="I96" s="3">
+      <c r="K96" s="3">
         <v>-305800</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-69600</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-69600</v>
       </c>
     </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -3029,8 +3536,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -3058,8 +3571,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -3087,91 +3606,115 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>-757800</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-2431900</v>
+      </c>
+      <c r="F100" s="3">
         <v>-1282700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-5207700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-1050500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-271900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-2226300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-1374900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-12460600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-9594800</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F101" s="3">
         <v>20300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-5300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>2300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>7600</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>5200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>6300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-12800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>-307500</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-486800</v>
+      </c>
+      <c r="F102" s="3">
         <v>679900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-822400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>204500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>725800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-206000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-631100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-5830700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>7065200</v>
       </c>
     </row>

--- a/Financials/Quarterly/AGN_QTR_FIN.xlsx
+++ b/Financials/Quarterly/AGN_QTR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4971698-248A-413F-B5EF-478AB0195F43}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="AGN" sheetId="6" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="92">
   <si>
     <t>AGN</t>
   </si>
@@ -296,12 +295,15 @@
   </si>
   <si>
     <t xml:space="preserve">Change In Cash and Cash Equivalents </t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -442,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -494,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -686,172 +654,211 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43738</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43646</v>
+      </c>
+      <c r="F7" s="2">
+        <v>43555</v>
+      </c>
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>43373</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>43281</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>43190</v>
       </c>
-      <c r="H7" s="2">
+      <c r="K7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="L7" s="2">
         <v>43008</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
         <v>42916</v>
       </c>
-      <c r="K7" s="2">
+      <c r="N7" s="2">
         <v>42825</v>
       </c>
-      <c r="L7" s="2">
+      <c r="O7" s="2">
         <v>42735</v>
       </c>
-      <c r="M7" s="2">
+      <c r="P7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4050700</v>
+      </c>
+      <c r="E8" s="3">
+        <v>4090100</v>
+      </c>
+      <c r="F8" s="3">
+        <v>3597100</v>
+      </c>
+      <c r="G8" s="3">
         <v>4079700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="H8" s="3">
         <v>3911400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="I8" s="3">
         <v>4124200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="J8" s="3">
         <v>3672100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="K8" s="3">
         <v>4326100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="L8" s="3">
         <v>4034300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="M8" s="3">
         <v>4007400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="N8" s="3">
         <v>3572900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="O8" s="3">
         <v>3864300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="P8" s="3">
         <v>3622200</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>638800</v>
+      </c>
+      <c r="E9" s="3">
+        <v>652200</v>
+      </c>
+      <c r="F9" s="3">
+        <v>496700</v>
+      </c>
+      <c r="G9" s="3">
         <v>590000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="H9" s="3">
         <v>596800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="I9" s="3">
         <v>481800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="J9" s="3">
         <v>522800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="K9" s="3">
         <v>580900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="L9" s="3">
         <v>586500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="M9" s="3">
         <v>550200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="N9" s="3">
         <v>450400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="O9" s="3">
         <v>479700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="P9" s="3">
         <v>462200</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>3411900</v>
+      </c>
+      <c r="E10" s="3">
+        <v>3437900</v>
+      </c>
+      <c r="F10" s="3">
+        <v>3100400</v>
+      </c>
+      <c r="G10" s="3">
         <v>3489700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="H10" s="3">
         <v>3314600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="I10" s="3">
         <v>3642400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="J10" s="3">
         <v>3149300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="K10" s="3">
         <v>3745200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="L10" s="3">
         <v>3447800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="M10" s="3">
         <v>3457200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="N10" s="3">
         <v>3122500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="O10" s="3">
         <v>3384600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="P10" s="3">
         <v>3160000</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -865,43 +872,55 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>474500</v>
+      </c>
+      <c r="E12" s="3">
+        <v>450000</v>
+      </c>
+      <c r="F12" s="3">
+        <v>435000</v>
+      </c>
+      <c r="G12" s="3">
         <v>678100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="H12" s="3">
         <v>424200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="I12" s="3">
         <v>689200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="J12" s="3">
         <v>474700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="K12" s="3">
         <v>408200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="L12" s="3">
         <v>442600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="M12" s="3">
         <v>489400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="N12" s="3">
         <v>759900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="O12" s="3">
         <v>913300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="P12" s="3">
         <v>622800</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -935,78 +954,105 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>200</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1527200</v>
+      </c>
+      <c r="F14" s="3">
+        <v>2469300</v>
+      </c>
+      <c r="G14" s="3">
         <v>2832900</v>
       </c>
-      <c r="E14" s="3">
+      <c r="H14" s="3">
         <v>-121300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="I14" s="3">
         <v>213900</v>
       </c>
-      <c r="G14" s="3">
+      <c r="J14" s="3">
         <v>522000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="K14" s="3">
         <v>-3174300</v>
       </c>
-      <c r="I14" s="3">
+      <c r="L14" s="3">
         <v>1497500</v>
       </c>
-      <c r="J14" s="3">
+      <c r="M14" s="3">
         <v>864800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="N14" s="3">
         <v>2318000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="O14" s="3">
         <v>427000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="P14" s="3">
         <v>42000</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>1537700</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1402000</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1399400</v>
+      </c>
+      <c r="G15" s="3">
         <v>1569100</v>
       </c>
-      <c r="E15" s="3">
+      <c r="H15" s="3">
         <v>1588500</v>
       </c>
-      <c r="F15" s="3">
+      <c r="I15" s="3">
         <v>1697100</v>
       </c>
-      <c r="G15" s="3">
+      <c r="J15" s="3">
         <v>1697600</v>
       </c>
-      <c r="H15" s="3">
+      <c r="K15" s="3">
         <v>1922200</v>
       </c>
-      <c r="I15" s="3">
+      <c r="L15" s="3">
         <v>1781000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="M15" s="3">
         <v>1757900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="N15" s="3">
         <v>1736000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="O15" s="3">
         <v>1638500</v>
       </c>
-      <c r="M15" s="3">
+      <c r="P15" s="3">
         <v>1609100</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1017,78 +1063,99 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>4647300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>5352900</v>
+      </c>
+      <c r="F17" s="3">
+        <v>5906600</v>
+      </c>
+      <c r="G17" s="3">
         <v>9449000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="H17" s="3">
         <v>3532600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="I17" s="3">
         <v>4529100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="J17" s="3">
         <v>4326100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="K17" s="3">
         <v>1035300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="L17" s="3">
         <v>9352100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="M17" s="3">
         <v>5071300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="N17" s="3">
         <v>6456900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="O17" s="3">
         <v>4764300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="P17" s="3">
         <v>3888600</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-596600</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-1262800</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-2309500</v>
+      </c>
+      <c r="G18" s="3">
         <v>-5369300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="H18" s="3">
         <v>378800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="I18" s="3">
         <v>-404900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="J18" s="3">
         <v>-654000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="K18" s="3">
         <v>3290800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="L18" s="3">
         <v>-5317800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="M18" s="3">
         <v>-1063900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="N18" s="3">
         <v>-2884000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="O18" s="3">
         <v>-900000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="P18" s="3">
         <v>-266400</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1102,183 +1169,231 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>23000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>4900</v>
+      </c>
+      <c r="F20" s="3">
+        <v>35400</v>
+      </c>
+      <c r="G20" s="3">
         <v>-13100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="H20" s="3">
         <v>18700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="I20" s="3">
         <v>159600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="J20" s="3">
         <v>-61500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="K20" s="3">
         <v>-3437300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="L20" s="3">
         <v>-3700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="M20" s="3">
         <v>44600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="N20" s="3">
         <v>80500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="O20" s="3">
         <v>81400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="P20" s="3">
         <v>51700</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>1018500</v>
+      </c>
+      <c r="E21" s="3">
+        <v>192800</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-827200</v>
+      </c>
+      <c r="G21" s="3">
         <v>-3766700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="H21" s="3">
         <v>2030500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="I21" s="3">
         <v>1500900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="J21" s="3">
         <v>1038200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="K21" s="3">
         <v>1824000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="L21" s="3">
         <v>-3498500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="M21" s="3">
         <v>778200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="N21" s="3">
         <v>-1025900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="O21" s="3">
         <v>858100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="P21" s="3">
         <v>1435100</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>193900</v>
+      </c>
+      <c r="E22" s="3">
+        <v>195400</v>
+      </c>
+      <c r="F22" s="3">
+        <v>201800</v>
+      </c>
+      <c r="G22" s="3">
         <v>210200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="H22" s="3">
         <v>220400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="I22" s="3">
         <v>230000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="J22" s="3">
         <v>250600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="K22" s="3">
         <v>263300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="L22" s="3">
         <v>265200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="M22" s="3">
         <v>277400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="N22" s="3">
         <v>289700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="O22" s="3">
         <v>292700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="P22" s="3">
         <v>324300</v>
       </c>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-767500</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-1453300</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-2475900</v>
+      </c>
+      <c r="G23" s="3">
         <v>-5592600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="H23" s="3">
         <v>177100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="I23" s="3">
         <v>-475300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="J23" s="3">
         <v>-966100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="K23" s="3">
         <v>-409800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="L23" s="3">
         <v>-5586700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="M23" s="3">
         <v>-1296700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="N23" s="3">
         <v>-3093200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="O23" s="3">
         <v>-1111300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="P23" s="3">
         <v>-539000</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>18100</v>
+      </c>
+      <c r="E24" s="3">
+        <v>301600</v>
+      </c>
+      <c r="F24" s="3">
+        <v>-68600</v>
+      </c>
+      <c r="G24" s="3">
         <v>-1282400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="H24" s="3">
         <v>213400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="I24" s="3">
         <v>-5200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="J24" s="3">
         <v>-682200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="K24" s="3">
         <v>-1118300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="L24" s="3">
         <v>-1638800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="M24" s="3">
         <v>-581200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="N24" s="3">
         <v>-532100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="O24" s="3">
         <v>-1071200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="P24" s="3">
         <v>-158900</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1312,78 +1427,105 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-785600</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-1754900</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-2407300</v>
+      </c>
+      <c r="G26" s="3">
         <v>-4310200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="H26" s="3">
         <v>-36300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="I26" s="3">
         <v>-470100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="J26" s="3">
         <v>-283900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="K26" s="3">
         <v>708500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="L26" s="3">
         <v>-3947900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="M26" s="3">
         <v>-715500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="N26" s="3">
         <v>-2561100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="O26" s="3">
         <v>-40100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="P26" s="3">
         <v>-380100</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-786800</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-1759000</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-2408000</v>
+      </c>
+      <c r="G27" s="3">
         <v>-4314200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="H27" s="3">
         <v>-37900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="I27" s="3">
         <v>-472500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="J27" s="3">
         <v>-332500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="K27" s="3">
         <v>637000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="L27" s="3">
         <v>-4019200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="M27" s="3">
         <v>-787100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="N27" s="3">
         <v>-2631700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="O27" s="3">
         <v>-111500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="P27" s="3">
         <v>-451500</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1417,43 +1559,61 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G29" s="3">
         <v>14300</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>2414700</v>
       </c>
-      <c r="I29" s="3">
+      <c r="L29" s="3">
         <v>-6100</v>
       </c>
-      <c r="J29" s="3">
+      <c r="M29" s="3">
         <v>-8400</v>
       </c>
-      <c r="K29" s="3">
+      <c r="N29" s="3">
         <v>-3100</v>
       </c>
-      <c r="L29" s="3">
+      <c r="O29" s="3">
         <v>41300</v>
       </c>
-      <c r="M29" s="3">
+      <c r="P29" s="3">
         <v>15601900</v>
       </c>
     </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1487,8 +1647,17 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1522,78 +1691,105 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>-23000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-35400</v>
+      </c>
+      <c r="G32" s="3">
         <v>13100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="H32" s="3">
         <v>-18700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="I32" s="3">
         <v>-159600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="J32" s="3">
         <v>61500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="K32" s="3">
         <v>3437300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="L32" s="3">
         <v>3700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="M32" s="3">
         <v>-44600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="N32" s="3">
         <v>-80500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="O32" s="3">
         <v>-81400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="P32" s="3">
         <v>-51700</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>-786800</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-1759000</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-2408000</v>
+      </c>
+      <c r="G33" s="3">
         <v>-4299900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="H33" s="3">
         <v>-37900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="I33" s="3">
         <v>-472500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="J33" s="3">
         <v>-332500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="K33" s="3">
         <v>3051700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="L33" s="3">
         <v>-4025300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="M33" s="3">
         <v>-795500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="N33" s="3">
         <v>-2634800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="O33" s="3">
         <v>-70200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="P33" s="3">
         <v>15150400</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1627,83 +1823,110 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>-786800</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-1759000</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-2408000</v>
+      </c>
+      <c r="G35" s="3">
         <v>-4299900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="H35" s="3">
         <v>-37900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="I35" s="3">
         <v>-472500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="J35" s="3">
         <v>-332500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="K35" s="3">
         <v>3051700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="L35" s="3">
         <v>-4025300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="M35" s="3">
         <v>-795500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="N35" s="3">
         <v>-2634800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="O35" s="3">
         <v>-70200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="P35" s="3">
         <v>15150400</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43738</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43646</v>
+      </c>
+      <c r="F38" s="2">
+        <v>43555</v>
+      </c>
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>43373</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>43281</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>43190</v>
       </c>
-      <c r="H38" s="2">
+      <c r="K38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="L38" s="2">
         <v>43008</v>
       </c>
-      <c r="J38" s="2">
+      <c r="M38" s="2">
         <v>42916</v>
       </c>
-      <c r="K38" s="2">
+      <c r="N38" s="2">
         <v>42825</v>
       </c>
-      <c r="L38" s="2">
+      <c r="O38" s="2">
         <v>42735</v>
       </c>
-      <c r="M38" s="2">
+      <c r="P38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1717,8 +1940,11 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1732,323 +1958,407 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>1237500</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1651400</v>
+      </c>
+      <c r="F41" s="3">
+        <v>788500</v>
+      </c>
+      <c r="G41" s="3">
         <v>880400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="H41" s="3">
         <v>1187900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="I41" s="3">
         <v>1674700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="J41" s="3">
         <v>994800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="K41" s="3">
         <v>1817200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="L41" s="3">
         <v>1612700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="M41" s="3">
         <v>886900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="N41" s="3">
         <v>1092900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="O41" s="3">
         <v>1724000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="P41" s="3">
         <v>7554700</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
+        <v>3318400</v>
+      </c>
+      <c r="E42" s="3">
+        <v>322300</v>
+      </c>
+      <c r="F42" s="3">
+        <v>995200</v>
+      </c>
+      <c r="G42" s="3">
         <v>1026900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="H42" s="3">
         <v>22000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="I42" s="3">
         <v>21500</v>
       </c>
-      <c r="G42" s="3">
+      <c r="J42" s="3">
         <v>1037400</v>
       </c>
-      <c r="H42" s="3">
+      <c r="K42" s="3">
         <v>4632100</v>
       </c>
-      <c r="I42" s="3">
+      <c r="L42" s="3">
         <v>3829100</v>
       </c>
-      <c r="J42" s="3">
+      <c r="M42" s="3">
         <v>4939000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="N42" s="3">
         <v>7858200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="O42" s="3">
         <v>11501500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="P42" s="3">
         <v>19837600</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>3012300</v>
+      </c>
+      <c r="E43" s="3">
+        <v>3086300</v>
+      </c>
+      <c r="F43" s="3">
+        <v>2731200</v>
+      </c>
+      <c r="G43" s="3">
         <v>2868100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="H43" s="3">
         <v>2826900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="I43" s="3">
         <v>2760800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="J43" s="3">
         <v>2639200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="K43" s="3">
         <v>2899000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="L43" s="3">
         <v>2808600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="M43" s="3">
         <v>2795900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="N43" s="3">
         <v>2542000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="O43" s="3">
         <v>2531000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="P43" s="3">
         <v>2398500</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>1083100</v>
+      </c>
+      <c r="E44" s="3">
+        <v>1004500</v>
+      </c>
+      <c r="F44" s="3">
+        <v>943200</v>
+      </c>
+      <c r="G44" s="3">
         <v>846900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="H44" s="3">
         <v>894600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="I44" s="3">
         <v>922500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="J44" s="3">
         <v>948400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="K44" s="3">
         <v>904500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="L44" s="3">
         <v>899800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="M44" s="3">
         <v>935900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="N44" s="3">
         <v>904700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="O44" s="3">
         <v>718000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="P44" s="3">
         <v>705500</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>942300</v>
+      </c>
+      <c r="E45" s="3">
+        <v>2508300</v>
+      </c>
+      <c r="F45" s="3">
+        <v>831200</v>
+      </c>
+      <c r="G45" s="3">
         <v>853100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="H45" s="3">
         <v>808800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="I45" s="3">
         <v>724200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="J45" s="3">
         <v>773500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="K45" s="3">
         <v>1123900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="L45" s="3">
         <v>962600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="M45" s="3">
         <v>875500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="N45" s="3">
         <v>1302900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="O45" s="3">
         <v>1383400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="P45" s="3">
         <v>1227600</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>9593600</v>
+      </c>
+      <c r="E46" s="3">
+        <v>8572800</v>
+      </c>
+      <c r="F46" s="3">
+        <v>6289300</v>
+      </c>
+      <c r="G46" s="3">
         <v>6475400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="H46" s="3">
         <v>5740200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="I46" s="3">
         <v>6103700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="J46" s="3">
         <v>6393300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="K46" s="3">
         <v>11376700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="L46" s="3">
         <v>10112800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="M46" s="3">
         <v>10433200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="N46" s="3">
         <v>13700700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="O46" s="3">
         <v>17857900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="P46" s="3">
         <v>31723900</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
+        <v>367900</v>
+      </c>
+      <c r="E47" s="3">
+        <v>335200</v>
+      </c>
+      <c r="F47" s="3">
+        <v>1979500</v>
+      </c>
+      <c r="G47" s="3">
         <v>1886900</v>
       </c>
-      <c r="E47" s="3">
+      <c r="H47" s="3">
         <v>302800</v>
       </c>
-      <c r="F47" s="3">
+      <c r="I47" s="3">
         <v>297900</v>
       </c>
-      <c r="G47" s="3">
+      <c r="J47" s="3">
         <v>267100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="K47" s="3">
         <v>216800</v>
       </c>
-      <c r="I47" s="3">
+      <c r="L47" s="3">
         <v>221100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="M47" s="3">
         <v>242300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="N47" s="3">
         <v>245400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="O47" s="3">
         <v>242700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="P47" s="3">
         <v>254200</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>2335200</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2278900</v>
+      </c>
+      <c r="F48" s="3">
+        <v>2236500</v>
+      </c>
+      <c r="G48" s="3">
         <v>1787000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="H48" s="3">
         <v>1756600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="I48" s="3">
         <v>1761400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="J48" s="3">
         <v>1769500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="K48" s="3">
         <v>1785400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="L48" s="3">
         <v>1802200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="M48" s="3">
         <v>1750100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="N48" s="3">
         <v>1659300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="O48" s="3">
         <v>1611300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="P48" s="3">
         <v>1566300</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>81592300</v>
+      </c>
+      <c r="E49" s="3">
+        <v>83572200</v>
+      </c>
+      <c r="F49" s="3">
+        <v>85601200</v>
+      </c>
+      <c r="G49" s="3">
         <v>89608700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="H49" s="3">
         <v>97583800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="I49" s="3">
         <v>99615500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="J49" s="3">
         <v>102626000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="K49" s="3">
         <v>104511200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="L49" s="3">
         <v>106469800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="M49" s="3">
         <v>111961900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="N49" s="3">
         <v>110911300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="O49" s="3">
         <v>108974700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="P49" s="3">
         <v>109648500</v>
       </c>
     </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2082,8 +2392,17 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2117,43 +2436,61 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>519900</v>
+      </c>
+      <c r="E52" s="3">
+        <v>721600</v>
+      </c>
+      <c r="F52" s="3">
+        <v>1929800</v>
+      </c>
+      <c r="G52" s="3">
         <v>2029600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="H52" s="3">
         <v>1159100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="I52" s="3">
         <v>1080300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="J52" s="3">
         <v>965400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="K52" s="3">
         <v>451800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="L52" s="3">
         <v>386900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="M52" s="3">
         <v>347300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="N52" s="3">
         <v>320200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="O52" s="3">
         <v>299700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="P52" s="3">
         <v>414800</v>
       </c>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -2187,43 +2524,61 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>94408900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>95480700</v>
+      </c>
+      <c r="F54" s="3">
+        <v>98036300</v>
+      </c>
+      <c r="G54" s="3">
         <v>101787600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="H54" s="3">
         <v>106542500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="I54" s="3">
         <v>108858800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="J54" s="3">
         <v>112021300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="K54" s="3">
         <v>118341900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="L54" s="3">
         <v>118992800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="M54" s="3">
         <v>124734800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="N54" s="3">
         <v>126836900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="O54" s="3">
         <v>128986300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="P54" s="3">
         <v>143607700</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2237,8 +2592,11 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2252,218 +2610,275 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>471200</v>
+      </c>
+      <c r="E57" s="3">
+        <v>518500</v>
+      </c>
+      <c r="F57" s="3">
+        <v>1238800</v>
+      </c>
+      <c r="G57" s="3">
         <v>354100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="H57" s="3">
         <v>291000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="I57" s="3">
         <v>511400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="J57" s="3">
         <v>998100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="K57" s="3">
         <v>1029900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="L57" s="3">
         <v>539000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="M57" s="3">
         <v>551500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="N57" s="3">
         <v>563500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="O57" s="3">
         <v>489800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="P57" s="3">
         <v>296500</v>
       </c>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>3739200</v>
+      </c>
+      <c r="E58" s="3">
+        <v>3094200</v>
+      </c>
+      <c r="F58" s="3">
+        <v>3971800</v>
+      </c>
+      <c r="G58" s="3">
         <v>868300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="H58" s="3">
         <v>1351600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="I58" s="3">
         <v>1348500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="J58" s="3">
         <v>626200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="K58" s="3">
         <v>4231800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="L58" s="3">
         <v>3797000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="M58" s="3">
         <v>3795000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="N58" s="3">
         <v>5526400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="O58" s="3">
         <v>2797900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="P58" s="3">
         <v>1591800</v>
       </c>
     </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>5428300</v>
+      </c>
+      <c r="E59" s="3">
+        <v>4691000</v>
+      </c>
+      <c r="F59" s="3">
+        <v>3638600</v>
+      </c>
+      <c r="G59" s="3">
         <v>4505500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="H59" s="3">
         <v>4589300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="I59" s="3">
         <v>4265400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="J59" s="3">
         <v>4191700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="K59" s="3">
         <v>4586400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="L59" s="3">
         <v>4223800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="M59" s="3">
         <v>4291800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="N59" s="3">
         <v>4301700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="O59" s="3">
         <v>4587000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="P59" s="3">
         <v>6137200</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>9638700</v>
+      </c>
+      <c r="E60" s="3">
+        <v>8303700</v>
+      </c>
+      <c r="F60" s="3">
+        <v>8849200</v>
+      </c>
+      <c r="G60" s="3">
         <v>5727900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="H60" s="3">
         <v>6231900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="I60" s="3">
         <v>6125300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="J60" s="3">
         <v>5816000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="K60" s="3">
         <v>9848100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="L60" s="3">
         <v>8559800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="M60" s="3">
         <v>8638300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="N60" s="3">
         <v>10391600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="O60" s="3">
         <v>7874700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="P60" s="3">
         <v>8025500</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>18786000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>19609300</v>
+      </c>
+      <c r="F61" s="3">
+        <v>19554100</v>
+      </c>
+      <c r="G61" s="3">
         <v>22929400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="H61" s="3">
         <v>22231800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="I61" s="3">
         <v>24002000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="J61" s="3">
         <v>25936400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="K61" s="3">
         <v>25843500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="L61" s="3">
         <v>26539100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="M61" s="3">
         <v>26443300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="N61" s="3">
         <v>26223000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="O61" s="3">
         <v>29970800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="P61" s="3">
         <v>31178200</v>
       </c>
     </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>7486000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>7871600</v>
+      </c>
+      <c r="F62" s="3">
+        <v>8073400</v>
+      </c>
+      <c r="G62" s="3">
         <v>7999300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="H62" s="3">
         <v>7557900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="I62" s="3">
         <v>7467500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="J62" s="3">
         <v>7922900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="K62" s="3">
         <v>8813200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="L62" s="3">
         <v>12720400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="M62" s="3">
         <v>14420400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="N62" s="3">
         <v>15023500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="O62" s="3">
         <v>14940300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="P62" s="3">
         <v>14673600</v>
       </c>
     </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -2497,8 +2912,17 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2532,8 +2956,17 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -2567,43 +3000,61 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>35933700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>35806000</v>
+      </c>
+      <c r="F66" s="3">
+        <v>36494300</v>
+      </c>
+      <c r="G66" s="3">
         <v>36673500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="H66" s="3">
         <v>36034700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="I66" s="3">
         <v>37615300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="J66" s="3">
         <v>39693400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="K66" s="3">
         <v>44520800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="L66" s="3">
         <v>47833400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="M66" s="3">
         <v>49514400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="N66" s="3">
         <v>51648500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="O66" s="3">
         <v>52793600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="P66" s="3">
         <v>53881800</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -2617,8 +3068,11 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -2652,8 +3106,17 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -2687,8 +3150,17 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -2705,13 +3177,13 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>4929700</v>
+        <v>0</v>
       </c>
       <c r="I70" s="3">
-        <v>4929700</v>
+        <v>0</v>
       </c>
       <c r="J70" s="3">
-        <v>4929700</v>
+        <v>0</v>
       </c>
       <c r="K70" s="3">
         <v>4929700</v>
@@ -2722,8 +3194,17 @@
       <c r="M70" s="3">
         <v>4929700</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N70" s="3">
+        <v>4929700</v>
+      </c>
+      <c r="O70" s="3">
+        <v>4929700</v>
+      </c>
+      <c r="P70" s="3">
+        <v>4929700</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -2757,43 +3238,61 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>1551700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>2581100</v>
+      </c>
+      <c r="F72" s="3">
+        <v>4582800</v>
+      </c>
+      <c r="G72" s="3">
         <v>7258900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="H72" s="3">
         <v>11800600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="I72" s="3">
         <v>12082900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="J72" s="3">
         <v>12799500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="K72" s="3">
         <v>12957200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="L72" s="3">
         <v>10137200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="M72" s="3">
         <v>14397900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="N72" s="3">
         <v>15429900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="O72" s="3">
         <v>18342500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="P72" s="3">
         <v>18412700</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -2827,8 +3326,17 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -2862,8 +3370,17 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -2897,43 +3414,61 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>58475200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>59674700</v>
+      </c>
+      <c r="F76" s="3">
+        <v>61542000</v>
+      </c>
+      <c r="G76" s="3">
         <v>65114100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="H76" s="3">
         <v>70507800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="I76" s="3">
         <v>71243500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="J76" s="3">
         <v>72327900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="K76" s="3">
         <v>68891400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="L76" s="3">
         <v>66229700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="M76" s="3">
         <v>70290700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="N76" s="3">
         <v>70258700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="O76" s="3">
         <v>71263000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="P76" s="3">
         <v>84796200</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -2967,83 +3502,110 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43738</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43646</v>
+      </c>
+      <c r="F80" s="2">
+        <v>43555</v>
+      </c>
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>43373</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>43281</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>43190</v>
       </c>
-      <c r="H80" s="2">
+      <c r="K80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="L80" s="2">
         <v>43008</v>
       </c>
-      <c r="J80" s="2">
+      <c r="M80" s="2">
         <v>42916</v>
       </c>
-      <c r="K80" s="2">
+      <c r="N80" s="2">
         <v>42825</v>
       </c>
-      <c r="L80" s="2">
+      <c r="O80" s="2">
         <v>42735</v>
       </c>
-      <c r="M80" s="2">
+      <c r="P80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>-786800</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-1759000</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-2408000</v>
+      </c>
+      <c r="G81" s="3">
         <v>-4299900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="H81" s="3">
         <v>-37900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="I81" s="3">
         <v>-472500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="J81" s="3">
         <v>-332500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="K81" s="3">
         <v>3051700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="L81" s="3">
         <v>-4025300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="M81" s="3">
         <v>-795500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="N81" s="3">
         <v>-2634800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="O81" s="3">
         <v>-70200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="P81" s="3">
         <v>15150400</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -3057,43 +3619,55 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
+        <v>1592100</v>
+      </c>
+      <c r="E83" s="3">
+        <v>1450700</v>
+      </c>
+      <c r="F83" s="3">
+        <v>1446900</v>
+      </c>
+      <c r="G83" s="3">
         <v>1615700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="H83" s="3">
         <v>1633000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="I83" s="3">
         <v>1746200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="J83" s="3">
         <v>1753700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="K83" s="3">
         <v>1970500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="L83" s="3">
         <v>1823000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="M83" s="3">
         <v>1797500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="N83" s="3">
         <v>1777600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="O83" s="3">
         <v>1676700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="P83" s="3">
         <v>1649800</v>
       </c>
     </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -3127,8 +3701,17 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -3162,8 +3745,17 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -3197,8 +3789,17 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -3232,8 +3833,17 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -3267,43 +3877,61 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>2924100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>1410300</v>
+      </c>
+      <c r="F89" s="3">
+        <v>1234000</v>
+      </c>
+      <c r="G89" s="3">
         <v>1498600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="H89" s="3">
         <v>1443000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="I89" s="3">
         <v>1240200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="J89" s="3">
         <v>1458300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="K89" s="3">
         <v>2083500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="L89" s="3">
         <v>1472400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="M89" s="3">
         <v>1799800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="N89" s="3">
         <v>723300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="O89" s="3">
         <v>-89500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="P89" s="3">
         <v>-1097700</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -3317,43 +3945,55 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-101000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-87500</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-64800</v>
+      </c>
+      <c r="G91" s="3">
         <v>-88400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="H91" s="3">
         <v>-58600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="I91" s="3">
         <v>-60100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="J91" s="3">
         <v>-46400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="K91" s="3">
         <v>-115900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="L91" s="3">
         <v>-96800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="M91" s="3">
         <v>-104000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="N91" s="3">
         <v>-379500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="O91" s="3">
         <v>-165800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="P91" s="3">
         <v>-135400</v>
       </c>
     </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -3387,8 +4027,17 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -3422,43 +4071,61 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-3095300</v>
+      </c>
+      <c r="E94" s="3">
+        <v>567400</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-104800</v>
+      </c>
+      <c r="G94" s="3">
         <v>-1039900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="H94" s="3">
         <v>504000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="I94" s="3">
         <v>702100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="J94" s="3">
         <v>2932300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="K94" s="3">
         <v>-795700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="L94" s="3">
         <v>-482300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="M94" s="3">
         <v>385800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="N94" s="3">
         <v>14200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="O94" s="3">
         <v>6726000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="P94" s="3">
         <v>17750100</v>
       </c>
     </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -3472,43 +4139,55 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
+        <v>-242600</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-242700</v>
+      </c>
+      <c r="F96" s="3">
+        <v>-246100</v>
+      </c>
+      <c r="G96" s="3">
         <v>-241700</v>
       </c>
-      <c r="E96" s="3">
+      <c r="H96" s="3">
         <v>-244400</v>
       </c>
-      <c r="F96" s="3">
+      <c r="I96" s="3">
         <v>-244200</v>
       </c>
-      <c r="G96" s="3">
+      <c r="J96" s="3">
         <v>-319500</v>
       </c>
-      <c r="H96" s="3">
+      <c r="K96" s="3">
         <v>-301200</v>
       </c>
-      <c r="I96" s="3">
+      <c r="L96" s="3">
         <v>-305100</v>
       </c>
-      <c r="J96" s="3">
+      <c r="M96" s="3">
         <v>-306100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="N96" s="3">
         <v>-305800</v>
       </c>
-      <c r="L96" s="3">
+      <c r="O96" s="3">
         <v>-69600</v>
       </c>
-      <c r="M96" s="3">
+      <c r="P96" s="3">
         <v>-69600</v>
       </c>
     </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -3542,8 +4221,17 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -3577,8 +4265,17 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -3612,109 +4309,145 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>-230000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-1111600</v>
+      </c>
+      <c r="F100" s="3">
+        <v>-1227000</v>
+      </c>
+      <c r="G100" s="3">
         <v>-757800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="H100" s="3">
         <v>-2431900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="I100" s="3">
         <v>-1282700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="J100" s="3">
         <v>-5207700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="K100" s="3">
         <v>-1050500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="L100" s="3">
         <v>-271900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="M100" s="3">
         <v>-2226300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="N100" s="3">
         <v>-1374900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="O100" s="3">
         <v>-12460600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="P100" s="3">
         <v>-9594800</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="F101" s="3">
+        <v>5900</v>
+      </c>
+      <c r="G101" s="3">
         <v>-8400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="H101" s="3">
         <v>-1900</v>
       </c>
-      <c r="F101" s="3">
+      <c r="I101" s="3">
         <v>20300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="J101" s="3">
         <v>-5300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="K101" s="3">
         <v>2300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="L101" s="3">
         <v>7600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="M101" s="3">
         <v>5200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="N101" s="3">
         <v>6300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="O101" s="3">
         <v>-12800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="P101" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>-413900</v>
+      </c>
+      <c r="E102" s="3">
+        <v>862900</v>
+      </c>
+      <c r="F102" s="3">
+        <v>-91900</v>
+      </c>
+      <c r="G102" s="3">
         <v>-307500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="H102" s="3">
         <v>-486800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="I102" s="3">
         <v>679900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="J102" s="3">
         <v>-822400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="K102" s="3">
         <v>204500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="L102" s="3">
         <v>725800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="M102" s="3">
         <v>-206000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="N102" s="3">
         <v>-631100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="O102" s="3">
         <v>-5830700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="P102" s="3">
         <v>7065200</v>
       </c>
     </row>
